--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019833_Event_15.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019833_Event_15.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +518,53 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.46496279092872</v>
+        <v>80.7902249558004</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80.7902249558004</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-37.00646262757554</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.90440970594878</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02582561865201461</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01330277201876009</v>
       </c>
     </row>
     <row r="3">
@@ -456,1401 +572,1125 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.53702320795476</v>
-      </c>
+        <v>83.46496279092872</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87.32943866236857</v>
-      </c>
+        <v>83.53702320795476</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>87.32708591134573</v>
-      </c>
+        <v>87.32943866236857</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88.62433139851593</v>
-      </c>
+        <v>87.32708591134573</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88.86023299854101</v>
-      </c>
+        <v>88.62433139851593</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.82803643922324</v>
-      </c>
+        <v>88.86023299854101</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89.81495512144902</v>
-      </c>
+        <v>89.82803643922324</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89.08310918803606</v>
-      </c>
+        <v>89.81495512144902</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89.09190995096486</v>
-      </c>
+        <v>89.08310918803606</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89.474745855159</v>
-      </c>
+        <v>89.09190995096486</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89.50781513687046</v>
-      </c>
+        <v>89.474745855159</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.33866112220554</v>
-      </c>
+        <v>89.50781513687046</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.37618165664708</v>
-      </c>
+        <v>89.33866112220554</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>87.76527991553262</v>
-      </c>
+        <v>89.37618165664708</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>87.7558008828983</v>
-      </c>
+        <v>87.76527991553262</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>84.62219327825544</v>
-      </c>
+        <v>87.7558008828983</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>84.67476186541306</v>
-      </c>
+        <v>84.62219327825544</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81.78394558893139</v>
-      </c>
+        <v>84.67476186541306</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81.67667624626567</v>
-      </c>
+        <v>81.78394558893139</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>77.69994294834726</v>
-      </c>
+        <v>81.67667624626567</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.65158718617612</v>
-      </c>
+        <v>77.69994294834726</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>73.24608668041762</v>
-      </c>
+        <v>77.65158718617612</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>72.98450195296066</v>
-      </c>
+        <v>73.24608668041762</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.33344297946577</v>
-      </c>
+        <v>72.98450195296066</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.2213266078537</v>
-      </c>
+        <v>67.33344297946577</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>62.40778466351614</v>
-      </c>
+        <v>67.2213266078537</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>62.40639165571616</v>
-      </c>
+        <v>62.40778466351614</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56.22957113883218</v>
-      </c>
+        <v>62.40639165571616</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>55.77827672997662</v>
-      </c>
+        <v>56.22957113883218</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.93009109918929</v>
-      </c>
+        <v>55.77827672997662</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.7322071791616</v>
-      </c>
+        <v>50.93009109918929</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>46.25885788776904</v>
-      </c>
+        <v>50.7322071791616</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>46.23517125064173</v>
-      </c>
+        <v>46.25885788776904</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.21785232113749</v>
-      </c>
+        <v>46.23517125064173</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.03387087559604</v>
-      </c>
+        <v>40.21785232113749</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.08957185555959</v>
-      </c>
+        <v>40.03387087559604</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35.07703279006527</v>
-      </c>
+        <v>35.08957185555959</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.2411247640533</v>
-      </c>
+        <v>35.07703279006527</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.2038131935628</v>
-      </c>
+        <v>29.2411247640533</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.966835855606</v>
-      </c>
+        <v>29.2038131935628</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.99807254687121</v>
-      </c>
+        <v>23.966835855606</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17.90440970594878</v>
-      </c>
+        <v>23.99807254687121</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17.68378866892947</v>
-      </c>
+        <v>17.90440970594878</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.64408626645762</v>
-      </c>
+        <v>17.68378866892947</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.61610968396396</v>
-      </c>
+        <v>11.64408626645762</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.991490518178814</v>
-      </c>
+        <v>11.61610968396396</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.018670072139358</v>
-      </c>
+        <v>4.991490518178814</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2201382696462277</v>
-      </c>
+        <v>5.018670072139358</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2178542875807667</v>
-      </c>
+        <v>-0.2201382696462277</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-6.246326777922246</v>
-      </c>
+        <v>-0.2178542875807667</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-6.179774538736392</v>
-      </c>
+        <v>-6.246326777922246</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-12.4769489700323</v>
-      </c>
+        <v>-6.179774538736392</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-12.41921806869811</v>
-      </c>
+        <v>-12.4769489700323</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-16.81027687902531</v>
-      </c>
+        <v>-12.41921806869811</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-16.81539009726593</v>
-      </c>
+        <v>-16.81027687902531</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-21.24021622074667</v>
-      </c>
+        <v>-16.81539009726593</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-21.29219236819251</v>
-      </c>
+        <v>-21.24021622074667</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.92821843067752</v>
-      </c>
+        <v>-21.29219236819251</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-24.28832195763202</v>
-      </c>
+        <v>-24.92821843067752</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-28.95058650813027</v>
-      </c>
+        <v>-24.28832195763202</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-28.99448578155964</v>
-      </c>
+        <v>-28.95058650813027</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-32.03799048544134</v>
-      </c>
+        <v>-28.99448578155964</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-31.9734906805949</v>
-      </c>
+        <v>-32.03799048544134</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-35.60345109429857</v>
-      </c>
+        <v>-31.9734906805949</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-35.59535303758754</v>
-      </c>
+        <v>-35.60345109429857</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-36.90440917474246</v>
-      </c>
+        <v>-35.59535303758754</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-36.91982549455333</v>
-      </c>
+        <v>-36.90440917474246</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-37.43698858749376</v>
-      </c>
+        <v>-36.91982549455333</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-37.4468259761034</v>
-      </c>
+        <v>-37.43698858749376</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-37.26535041905008</v>
-      </c>
+        <v>-37.4468259761034</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-37.32191906881706</v>
-      </c>
+        <v>-37.26535041905008</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-37.90575920774948</v>
-      </c>
+        <v>-37.32191906881706</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-37.85925400732312</v>
-      </c>
+        <v>-37.90575920774948</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-37.03861251363796</v>
-      </c>
+        <v>-37.85925400732312</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-37.13297719789053</v>
-      </c>
+        <v>-37.03861251363796</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-37.08836514469005</v>
-      </c>
+        <v>-37.13297719789053</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-37.10952971480746</v>
-      </c>
+        <v>-37.08836514469005</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-38.07006497570408</v>
-      </c>
+        <v>-37.10952971480746</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-38.15303149222491</v>
-      </c>
+        <v>-38.07006497570408</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-38.32835125029717</v>
-      </c>
+        <v>-38.15303149222491</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-38.3502669020452</v>
-      </c>
+        <v>-38.32835125029717</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-38.64691644811015</v>
-      </c>
+        <v>-38.3502669020452</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-38.65978236972986</v>
-      </c>
+        <v>-38.64691644811015</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-37.02915512621253</v>
-      </c>
+        <v>-38.65978236972986</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>-37.02915512621253</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
         <v>-37.00646262757554</v>
       </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-58.41710262779676</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-58.36587733493459</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-58.35700093301705</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-58.31806899166347</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-58.10076267079774</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-58.12105484749858</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-57.51570600610397</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-57.49189364586263</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-56.72925610692663</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-56.68723563774411</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-55.85178768189523</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-55.81523939692937</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-54.69222765760113</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-54.64332396006787</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-53.35199131666084</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-53.33465932006046</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-50.67877268107529</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-50.69040741888032</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-48.48453060300895</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-48.35498394516986</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-44.99248998771886</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-44.98938421372967</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-41.84358513613827</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-41.76435253774415</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-38.51851737213519</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-38.49329990819448</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-35.2841329109074</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-35.27280051546558</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-31.80809904499727</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-31.60799033669433</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-28.56381993997618</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-28.50901633583052</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-25.37806612979538</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-25.38869085330647</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-21.88554701334762</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-21.80305735803746</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-18.02382335075068</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-18.02419791112691</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-14.00528850366591</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-13.98100846952893</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-9.614180253284809</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-9.604434843983913</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-4.637294770202286</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-4.533149860435083</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.2197349155908594</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.2400663452271547</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>5.352203533481021</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>5.383859604279869</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>10.75278578326831</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>10.72994410894866</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>15.90825381747202</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>15.91166493306767</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>20.69909531328528</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>20.69887512125374</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>24.46199109507369</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>24.46175887732304</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>28.16333205085171</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>28.2325923096137</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>31.00882974236087</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>31.03997668748203</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>34.22346459451193</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>34.25049893059341</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>37.54275872384545</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>37.51759056856993</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>40.30967440771875</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>40.32872850644466</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>41.88039831291885</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>41.92273729838604</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>43.07394926744281</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>43.06044341519279</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>44.54054985629656</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>44.56163709257307</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>46.23012834446914</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>46.21827398063216</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>47.70176899720243</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>47.73160096513126</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>48.70256253373689</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>48.71680821317343</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>49.57379782620214</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>49.60239697802732</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>50.06073379731681</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>50.05464760971036</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>50.34042335856877</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>50.33770719835987</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>49.29704221180482</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>49.42000479825896</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1876,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.46496279092872</v>
+        <v>80.7902249558004</v>
       </c>
     </row>
     <row r="3">
@@ -1884,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.53702320795476</v>
+        <v>83.46496279092872</v>
       </c>
     </row>
     <row r="4">
@@ -1892,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87.32708591134573</v>
+        <v>87.32943866236857</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>88.62433139851593</v>
+        <v>87.32708591134573</v>
       </c>
     </row>
     <row r="6">
@@ -1908,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88.86023299854101</v>
+        <v>88.62433139851593</v>
       </c>
     </row>
     <row r="7">
@@ -1916,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89.82803643922324</v>
+        <v>88.86023299854101</v>
       </c>
     </row>
     <row r="8">
@@ -1924,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.08310918803606</v>
+        <v>89.81495512144902</v>
       </c>
     </row>
     <row r="9">
@@ -1932,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89.09190995096486</v>
+        <v>89.08310918803606</v>
       </c>
     </row>
     <row r="10">
@@ -1940,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89.474745855159</v>
+        <v>89.09190995096486</v>
       </c>
     </row>
     <row r="11">
@@ -1956,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89.37618165664708</v>
+        <v>89.33866112220554</v>
       </c>
     </row>
     <row r="13">
@@ -1964,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>87.76527991553262</v>
+        <v>89.37618165664708</v>
       </c>
     </row>
     <row r="14">
@@ -1972,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>87.7558008828983</v>
+        <v>87.76527991553262</v>
       </c>
     </row>
     <row r="15">
@@ -1980,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>84.67476186541306</v>
+        <v>84.62219327825544</v>
       </c>
     </row>
     <row r="16">
@@ -1988,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81.78394558893139</v>
+        <v>84.67476186541306</v>
       </c>
     </row>
     <row r="17">
@@ -1996,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>81.67667624626567</v>
+        <v>81.78394558893139</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.69994294834726</v>
+        <v>81.67667624626567</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +1852,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>73.24608668041762</v>
+        <v>77.65158718617612</v>
       </c>
     </row>
     <row r="20">
@@ -2020,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>72.98450195296066</v>
+        <v>73.24608668041762</v>
       </c>
     </row>
     <row r="21">
@@ -2028,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.33344297946577</v>
+        <v>72.98450195296066</v>
       </c>
     </row>
     <row r="22">
@@ -2044,7 +1884,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>62.40639165571616</v>
+        <v>62.40778466351614</v>
       </c>
     </row>
     <row r="24">
@@ -2052,7 +1892,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>56.22957113883218</v>
+        <v>62.40639165571616</v>
       </c>
     </row>
     <row r="25">
@@ -2060,7 +1900,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.77827672997662</v>
+        <v>56.22957113883218</v>
       </c>
     </row>
     <row r="26">
@@ -2076,7 +1916,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>46.25885788776904</v>
+        <v>50.7322071791616</v>
       </c>
     </row>
     <row r="28">
@@ -2084,7 +1924,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>46.23517125064173</v>
+        <v>46.25885788776904</v>
       </c>
     </row>
     <row r="29">
@@ -2100,7 +1940,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.08957185555959</v>
+        <v>40.03387087559604</v>
       </c>
     </row>
     <row r="31">
@@ -2108,7 +1948,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35.07703279006527</v>
+        <v>35.08957185555959</v>
       </c>
     </row>
     <row r="32">
@@ -2116,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.2411247640533</v>
+        <v>35.07703279006527</v>
       </c>
     </row>
     <row r="33">
@@ -2132,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.99807254687121</v>
+        <v>23.966835855606</v>
       </c>
     </row>
     <row r="35">
@@ -2140,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17.90440970594878</v>
+        <v>23.99807254687121</v>
       </c>
     </row>
     <row r="36">
@@ -2164,7 +2004,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.991490518178814</v>
+        <v>11.61610968396396</v>
       </c>
     </row>
     <row r="39">
@@ -2172,7 +2012,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.018670072139358</v>
+        <v>4.991490518178814</v>
       </c>
     </row>
     <row r="40">
@@ -2188,7 +2028,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-6.246326777922246</v>
+        <v>-0.2178542875807667</v>
       </c>
     </row>
     <row r="42">
@@ -2196,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-6.179774538736392</v>
+        <v>-6.246326777922246</v>
       </c>
     </row>
     <row r="43">
@@ -2204,7 +2044,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-12.4769489700323</v>
+        <v>-6.179774538736392</v>
       </c>
     </row>
     <row r="44">
@@ -2220,7 +2060,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-16.81539009726593</v>
+        <v>-16.81027687902531</v>
       </c>
     </row>
     <row r="46">
@@ -2228,7 +2068,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-21.24021622074667</v>
+        <v>-16.81539009726593</v>
       </c>
     </row>
     <row r="47">
@@ -2252,7 +2092,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-28.95058650813027</v>
+        <v>-24.28832195763202</v>
       </c>
     </row>
     <row r="50">
@@ -2260,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-28.99448578155964</v>
+        <v>-28.95058650813027</v>
       </c>
     </row>
     <row r="51">
@@ -2276,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-35.60345109429857</v>
+        <v>-31.9734906805949</v>
       </c>
     </row>
     <row r="53">
@@ -2284,7 +2124,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-35.59535303758754</v>
+        <v>-35.60345109429857</v>
       </c>
     </row>
     <row r="54">
@@ -2308,7 +2148,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-37.4468259761034</v>
+        <v>-37.43698858749376</v>
       </c>
     </row>
     <row r="57">
@@ -2316,7 +2156,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-37.26535041905008</v>
+        <v>-37.4468259761034</v>
       </c>
     </row>
     <row r="58">
@@ -2340,7 +2180,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-37.03861251363796</v>
+        <v>-37.85925400732312</v>
       </c>
     </row>
     <row r="61">
@@ -2372,7 +2212,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-38.15303149222491</v>
+        <v>-38.07006497570408</v>
       </c>
     </row>
     <row r="65">
@@ -2396,7 +2236,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-38.65978236972986</v>
+        <v>-38.64691644811015</v>
       </c>
     </row>
     <row r="68">
@@ -2404,7 +2244,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-37.02915512621253</v>
+        <v>-38.65978236972986</v>
       </c>
     </row>
     <row r="69">
@@ -2428,7 +2268,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-33.83002786676231</v>
+        <v>-36.10322375142916</v>
       </c>
     </row>
     <row r="72">
@@ -2460,7 +2300,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-21.09306641802728</v>
+        <v>-21.07127553228007</v>
       </c>
     </row>
     <row r="76">
@@ -2484,7 +2324,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.542420837405718</v>
+        <v>1.561871248145195</v>
       </c>
     </row>
     <row r="79">
@@ -2516,7 +2356,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>53.9335490960265</v>
+        <v>36.44586402471661</v>
       </c>
     </row>
     <row r="83">
@@ -2604,7 +2444,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>88.00493057643897</v>
+        <v>86.43501565379033</v>
       </c>
     </row>
     <row r="94">
@@ -2684,7 +2524,1011 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-58.39533324748184</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-58.39533324748184</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.42000479825896</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.637294770202286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-58.41710262779676</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-58.36587733493459</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-58.35700093301705</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-58.31806899166347</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-58.10076267079774</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-58.12105484749858</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-57.51570600610397</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-57.49189364586263</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-56.72925610692663</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-56.68723563774411</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-55.85178768189523</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-55.81523939692937</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-54.69222765760113</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-54.64332396006787</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-53.35199131666084</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-53.33465932006046</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-50.67877268107529</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-50.69040741888032</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-48.48453060300895</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-48.35498394516986</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-44.99248998771886</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-44.98938421372967</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-41.84358513613827</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-41.76435253774415</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-38.51851737213519</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-38.49329990819448</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-35.2841329109074</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-35.27280051546558</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-31.80809904499727</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-31.60799033669433</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-28.56381993997618</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-28.50901633583052</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-25.37806612979538</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-25.38869085330647</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-21.88554701334762</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-21.80305735803746</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-18.02382335075068</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-18.02419791112691</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-14.00528850366591</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-13.98100846952893</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-9.614180253284809</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-9.604434843983913</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-4.637294770202286</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-4.533149860435083</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.2197349155908594</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2400663452271547</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5.352203533481021</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5.383859604279869</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10.75278578326831</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10.72994410894866</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.90825381747202</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15.91166493306767</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20.69909531328528</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20.69887512125374</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24.46199109507369</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24.46175887732304</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>28.16333205085171</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28.2325923096137</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31.00882974236087</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>31.03997668748203</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>34.22346459451193</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>34.25049893059341</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>37.54275872384545</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>37.51759056856993</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>40.30967440771875</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>40.32872850644466</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>41.88039831291885</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>41.92273729838604</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>43.07394926744281</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>43.06044341519279</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>44.54054985629656</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>44.56163709257307</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>46.23012834446914</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>46.21827398063216</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>47.70176899720243</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>47.73160096513126</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>48.70256253373689</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>48.71680821317343</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>49.57379782620214</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>49.60239697802732</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50.06073379731681</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>50.05464760971036</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>50.34042335856877</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>50.33770719835987</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>49.29704221180482</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>49.42000479825896</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2710,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-58.41710262779676</v>
+        <v>-58.39533324748184</v>
       </c>
     </row>
     <row r="3">
@@ -2718,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-58.36587733493459</v>
+        <v>-58.41710262779676</v>
       </c>
     </row>
     <row r="4">
@@ -2726,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.31806899166347</v>
+        <v>-58.35700093301705</v>
       </c>
     </row>
     <row r="5">
@@ -2734,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-58.10076267079774</v>
+        <v>-58.31806899166347</v>
       </c>
     </row>
     <row r="6">
@@ -2742,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-58.12105484749858</v>
+        <v>-58.10076267079774</v>
       </c>
     </row>
     <row r="7">
@@ -2750,7 +3594,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-57.51570600610397</v>
+        <v>-58.12105484749858</v>
       </c>
     </row>
     <row r="8">
@@ -2758,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-56.72925610692663</v>
+        <v>-57.49189364586263</v>
       </c>
     </row>
     <row r="9">
@@ -2766,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-56.68723563774411</v>
+        <v>-56.72925610692663</v>
       </c>
     </row>
     <row r="10">
@@ -2774,7 +3618,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.85178768189523</v>
+        <v>-56.68723563774411</v>
       </c>
     </row>
     <row r="11">
@@ -2790,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-54.64332396006787</v>
+        <v>-54.69222765760113</v>
       </c>
     </row>
     <row r="13">
@@ -2798,7 +3642,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-53.35199131666084</v>
+        <v>-54.64332396006787</v>
       </c>
     </row>
     <row r="14">
@@ -2806,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-53.33465932006046</v>
+        <v>-53.35199131666084</v>
       </c>
     </row>
     <row r="15">
@@ -2814,7 +3658,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.69040741888032</v>
+        <v>-50.67877268107529</v>
       </c>
     </row>
     <row r="16">
@@ -2822,7 +3666,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-48.48453060300895</v>
+        <v>-50.69040741888032</v>
       </c>
     </row>
     <row r="17">
@@ -2830,7 +3674,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-48.35498394516986</v>
+        <v>-48.48453060300895</v>
       </c>
     </row>
     <row r="18">
@@ -2838,7 +3682,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-44.99248998771886</v>
+        <v>-48.35498394516986</v>
       </c>
     </row>
     <row r="19">
@@ -2846,7 +3690,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-41.84358513613827</v>
+        <v>-44.98938421372967</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +3698,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-41.76435253774415</v>
+        <v>-41.84358513613827</v>
       </c>
     </row>
     <row r="21">
@@ -2862,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-38.51851737213519</v>
+        <v>-41.76435253774415</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +3722,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-35.27280051546558</v>
+        <v>-35.2841329109074</v>
       </c>
     </row>
     <row r="24">
@@ -2886,7 +3730,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-31.80809904499727</v>
+        <v>-35.27280051546558</v>
       </c>
     </row>
     <row r="25">
@@ -2894,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-31.60799033669433</v>
+        <v>-31.80809904499727</v>
       </c>
     </row>
     <row r="26">
@@ -2910,7 +3754,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-25.37806612979538</v>
+        <v>-28.50901633583052</v>
       </c>
     </row>
     <row r="28">
@@ -2918,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-25.38869085330647</v>
+        <v>-25.37806612979538</v>
       </c>
     </row>
     <row r="29">
@@ -2934,7 +3778,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-18.02382335075068</v>
+        <v>-21.80305735803746</v>
       </c>
     </row>
     <row r="31">
@@ -2942,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-18.02419791112691</v>
+        <v>-18.02382335075068</v>
       </c>
     </row>
     <row r="32">
@@ -2950,7 +3794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-14.00528850366591</v>
+        <v>-18.02419791112691</v>
       </c>
     </row>
     <row r="33">
@@ -2966,7 +3810,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-9.604434843983913</v>
+        <v>-9.614180253284809</v>
       </c>
     </row>
     <row r="35">
@@ -2974,7 +3818,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.637294770202286</v>
+        <v>-9.604434843983913</v>
       </c>
     </row>
     <row r="36">
@@ -2998,7 +3842,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.352203533481021</v>
+        <v>0.2400663452271547</v>
       </c>
     </row>
     <row r="39">
@@ -3006,7 +3850,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.383859604279869</v>
+        <v>5.352203533481021</v>
       </c>
     </row>
     <row r="40">
@@ -3022,7 +3866,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.90825381747202</v>
+        <v>10.72994410894866</v>
       </c>
     </row>
     <row r="42">
@@ -3030,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.91166493306767</v>
+        <v>15.90825381747202</v>
       </c>
     </row>
     <row r="43">
@@ -3038,7 +3882,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.69909531328528</v>
+        <v>15.91166493306767</v>
       </c>
     </row>
     <row r="44">
@@ -3054,7 +3898,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>24.46175887732304</v>
+        <v>24.46199109507369</v>
       </c>
     </row>
     <row r="46">
@@ -3062,7 +3906,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>28.16333205085171</v>
+        <v>24.46175887732304</v>
       </c>
     </row>
     <row r="47">
@@ -3086,7 +3930,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.22346459451193</v>
+        <v>31.03997668748203</v>
       </c>
     </row>
     <row r="50">
@@ -3094,7 +3938,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.25049893059341</v>
+        <v>34.22346459451193</v>
       </c>
     </row>
     <row r="51">
@@ -3110,7 +3954,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.30967440771875</v>
+        <v>37.51759056856993</v>
       </c>
     </row>
     <row r="53">
@@ -3118,7 +3962,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.32872850644466</v>
+        <v>40.30967440771875</v>
       </c>
     </row>
     <row r="54">
@@ -3142,7 +3986,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>43.06044341519279</v>
+        <v>43.07394926744281</v>
       </c>
     </row>
     <row r="57">
@@ -3150,7 +3994,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44.54054985629656</v>
+        <v>43.06044341519279</v>
       </c>
     </row>
     <row r="58">
@@ -3174,7 +4018,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>47.70176899720243</v>
+        <v>46.21827398063216</v>
       </c>
     </row>
     <row r="61">
@@ -3206,7 +4050,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.60239697802732</v>
+        <v>49.57379782620214</v>
       </c>
     </row>
     <row r="65">
@@ -3230,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>50.33770719835987</v>
+        <v>50.34042335856877</v>
       </c>
     </row>
     <row r="68">
@@ -3238,7 +4082,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>49.29704221180482</v>
+        <v>50.33770719835987</v>
       </c>
     </row>
     <row r="69">
@@ -3262,7 +4106,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>45.47583088777473</v>
+        <v>47.66081357165262</v>
       </c>
     </row>
     <row r="72">
@@ -3294,7 +4138,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>42.75840694142529</v>
+        <v>42.77570381598166</v>
       </c>
     </row>
     <row r="76">
@@ -3318,7 +4162,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6012405577137805</v>
+        <v>0.6016814438978101</v>
       </c>
     </row>
     <row r="79">
@@ -3350,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.6155378132313</v>
+        <v>-1.077153469284442</v>
       </c>
     </row>
     <row r="83">
@@ -3438,7 +4282,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-56.20219005818866</v>
+        <v>-52.70338940110697</v>
       </c>
     </row>
     <row r="94">
